--- a/03_result/SubGroup_Blood_Stats.xlsx
+++ b/03_result/SubGroup_Blood_Stats.xlsx
@@ -152,6 +152,27 @@
     <t xml:space="preserve">PLT_Mean</t>
   </si>
   <si>
+    <t xml:space="preserve">Adult_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderly_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderly_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderly_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Young_1</t>
   </si>
   <si>
@@ -162,27 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">Young_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elderly_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elderly_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elderly_3</t>
   </si>
 </sst>
 </file>
@@ -659,139 +659,139 @@
         <v>46</v>
       </c>
       <c r="B2" t="n">
-        <v>5.58</v>
+        <v>4.05</v>
       </c>
       <c r="C2" t="n">
-        <v>24.95</v>
+        <v>11.01</v>
       </c>
       <c r="D2" t="n">
-        <v>8.741875</v>
+        <v>6.9462962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>1.43</v>
+        <v>2.14</v>
       </c>
       <c r="F2" t="n">
-        <v>17.95</v>
+        <v>7.9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.253125</v>
+        <v>4.17981481481482</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>7.15</v>
+        <v>4.22</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6359375</v>
+        <v>2.2037037037037</v>
       </c>
       <c r="K2" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="L2" t="n">
-        <v>2.57</v>
+        <v>0.98</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5665625</v>
+        <v>0.401851851851852</v>
       </c>
       <c r="N2" t="n">
         <v>0.01</v>
       </c>
       <c r="O2" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2546875</v>
+        <v>0.130925925925926</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0315625</v>
+        <v>0.03</v>
       </c>
       <c r="T2" t="n">
-        <v>17.6</v>
+        <v>46.9</v>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>73.7</v>
       </c>
       <c r="V2" t="n">
-        <v>34.396875</v>
+        <v>59.4759259259259</v>
       </c>
       <c r="W2" t="n">
-        <v>17.6</v>
+        <v>19.4</v>
       </c>
       <c r="X2" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.9125</v>
+        <v>32.3148148148148</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.9</v>
+        <v>10.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.246875</v>
+        <v>5.82407407407407</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.4</v>
+        <v>13.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.065625</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="AF2" t="n">
         <v>0.1</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.38125</v>
+        <v>0.468518518518519</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.23</v>
+        <v>4.03</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.26</v>
+        <v>6.48</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.4925</v>
+        <v>4.97148148148148</v>
       </c>
       <c r="AL2" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AM2" t="n">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="AN2" t="n">
-        <v>122.84375</v>
+        <v>145.740740740741</v>
       </c>
       <c r="AO2" t="n">
-        <v>30.2</v>
+        <v>33.7</v>
       </c>
       <c r="AP2" t="n">
-        <v>40.9</v>
+        <v>53.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>37.175</v>
+        <v>45.0185185185185</v>
       </c>
       <c r="AR2" t="n">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="AS2" t="n">
-        <v>561</v>
+        <v>379</v>
       </c>
       <c r="AT2" t="n">
-        <v>325.28125</v>
+        <v>241.796296296296</v>
       </c>
     </row>
     <row r="3">
@@ -799,139 +799,139 @@
         <v>47</v>
       </c>
       <c r="B3" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4</v>
+        <v>10.54</v>
       </c>
       <c r="D3" t="n">
-        <v>7.32833333333333</v>
+        <v>6.59688888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="F3" t="n">
-        <v>8.47</v>
+        <v>6.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.48597222222222</v>
+        <v>4.06844444444444</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>0.96</v>
       </c>
       <c r="I3" t="n">
-        <v>5.38</v>
+        <v>3.13</v>
       </c>
       <c r="J3" t="n">
-        <v>3.10652777777778</v>
+        <v>2.01888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>0.76</v>
       </c>
       <c r="M3" t="n">
-        <v>0.439305555555556</v>
+        <v>0.369777777777778</v>
       </c>
       <c r="N3" t="n">
         <v>0.01</v>
       </c>
       <c r="O3" t="n">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="P3" t="n">
-        <v>0.248888888888889</v>
+        <v>0.106888888888889</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0354166666666667</v>
+        <v>0.0328888888888889</v>
       </c>
       <c r="T3" t="n">
-        <v>28.8</v>
+        <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>72.1</v>
+        <v>75.7</v>
       </c>
       <c r="V3" t="n">
-        <v>46.6902777777778</v>
+        <v>60.8622222222222</v>
       </c>
       <c r="W3" t="n">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="X3" t="n">
-        <v>62</v>
+        <v>47.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.2611111111111</v>
+        <v>31.2933333333333</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.0625</v>
+        <v>5.65111111111111</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.4</v>
+        <v>4.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.43055555555556</v>
+        <v>1.65777777777778</v>
       </c>
       <c r="AF3" t="n">
         <v>0.1</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.498611111111111</v>
+        <v>0.535555555555556</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.23</v>
+        <v>3.74</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.76</v>
+        <v>8.06</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.72</v>
+        <v>4.88911111111111</v>
       </c>
       <c r="AL3" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AM3" t="n">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="AN3" t="n">
-        <v>132.222222222222</v>
+        <v>142.644444444444</v>
       </c>
       <c r="AO3" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="AP3" t="n">
-        <v>42.6</v>
+        <v>55.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>39.5569444444444</v>
+        <v>44.5355555555556</v>
       </c>
       <c r="AR3" t="n">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="AS3" t="n">
-        <v>518</v>
+        <v>354</v>
       </c>
       <c r="AT3" t="n">
-        <v>311.486111111111</v>
+        <v>223.133333333333</v>
       </c>
     </row>
     <row r="4">
@@ -939,139 +939,139 @@
         <v>48</v>
       </c>
       <c r="B4" t="n">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7</v>
+        <v>10.64</v>
       </c>
       <c r="D4" t="n">
-        <v>6.65835616438356</v>
+        <v>6.3611320754717</v>
       </c>
       <c r="E4" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>10.15</v>
+        <v>8.43</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7113698630137</v>
+        <v>4.07264150943396</v>
       </c>
       <c r="H4" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
-        <v>4.39</v>
+        <v>3.63</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3827397260274</v>
+        <v>1.82433962264151</v>
       </c>
       <c r="K4" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="M4" t="n">
-        <v>0.397945205479452</v>
+        <v>0.341320754716981</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O4" t="n">
-        <v>0.91</v>
+        <v>0.32</v>
       </c>
       <c r="P4" t="n">
-        <v>0.21013698630137</v>
+        <v>0.0954716981132075</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0301369863013699</v>
+        <v>0.0273584905660377</v>
       </c>
       <c r="T4" t="n">
-        <v>29.8</v>
+        <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="V4" t="n">
-        <v>52.7630136986301</v>
+        <v>62.7622641509434</v>
       </c>
       <c r="W4" t="n">
-        <v>11.2</v>
+        <v>15.1</v>
       </c>
       <c r="X4" t="n">
-        <v>58.5</v>
+        <v>53.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.2164383561644</v>
+        <v>29.7433962264151</v>
       </c>
       <c r="Z4" t="n">
         <v>3.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.6</v>
+        <v>8.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.01369863013699</v>
+        <v>5.43207547169811</v>
       </c>
       <c r="AC4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.5811320754717</v>
+      </c>
+      <c r="AF4" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.12054794520548</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AG4" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.458904109589041</v>
+        <v>0.481132075471698</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.71</v>
+        <v>3.6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.38</v>
+        <v>5.87</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.63150684931507</v>
+        <v>4.70867924528302</v>
       </c>
       <c r="AL4" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AM4" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AN4" t="n">
-        <v>132.712328767123</v>
+        <v>139.641509433962</v>
       </c>
       <c r="AO4" t="n">
-        <v>32.6</v>
+        <v>34.9</v>
       </c>
       <c r="AP4" t="n">
-        <v>46</v>
+        <v>51.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>39.727397260274</v>
+        <v>43.388679245283</v>
       </c>
       <c r="AR4" t="n">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="AS4" t="n">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AT4" t="n">
-        <v>270.356164383562</v>
+        <v>237.77358490566</v>
       </c>
     </row>
     <row r="5">
@@ -1079,139 +1079,139 @@
         <v>49</v>
       </c>
       <c r="B5" t="n">
-        <v>2.88</v>
+        <v>4.24</v>
       </c>
       <c r="C5" t="n">
-        <v>9.07</v>
+        <v>12.81</v>
       </c>
       <c r="D5" t="n">
-        <v>6.4403125</v>
+        <v>6.57415094339623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.88</v>
+        <v>2.32</v>
       </c>
       <c r="F5" t="n">
-        <v>5.43</v>
+        <v>9.61</v>
       </c>
       <c r="G5" t="n">
-        <v>3.319375</v>
+        <v>4.10905660377358</v>
       </c>
       <c r="H5" t="n">
         <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>4.87</v>
+        <v>4.14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.503125</v>
+        <v>1.97433962264151</v>
       </c>
       <c r="K5" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="L5" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="M5" t="n">
-        <v>0.385396825396825</v>
+        <v>0.346603773584906</v>
       </c>
       <c r="N5" t="n">
         <v>0.02</v>
       </c>
       <c r="O5" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="P5" t="n">
-        <v>0.20125</v>
+        <v>0.117169811320755</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0296875</v>
+        <v>0.0269811320754717</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>72.8</v>
+        <v>75.1</v>
       </c>
       <c r="V5" t="n">
-        <v>50.61875</v>
+        <v>62.0283018867925</v>
       </c>
       <c r="W5" t="n">
-        <v>15.1</v>
+        <v>19.2</v>
       </c>
       <c r="X5" t="n">
-        <v>57.1</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.8359375</v>
+        <v>30.2943396226415</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>10.5</v>
+        <v>13.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.9984375</v>
+        <v>5.41132075471698</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.184375</v>
+        <v>1.80754716981132</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.4890625</v>
+        <v>0.458490566037736</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.05</v>
+        <v>3.77</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.97</v>
+        <v>6.37</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.90875</v>
+        <v>4.68415094339623</v>
       </c>
       <c r="AL5" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>141.21875</v>
+        <v>141.415094339623</v>
       </c>
       <c r="AO5" t="n">
-        <v>33.1</v>
+        <v>36</v>
       </c>
       <c r="AP5" t="n">
-        <v>48.8</v>
+        <v>55.3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>42.3265625</v>
+        <v>44.2283018867925</v>
       </c>
       <c r="AR5" t="n">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AS5" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AT5" t="n">
-        <v>252.078125</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6">
@@ -1219,49 +1219,49 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>4.05</v>
+        <v>2.08</v>
       </c>
       <c r="C6" t="n">
-        <v>11.01</v>
+        <v>37.83</v>
       </c>
       <c r="D6" t="n">
-        <v>6.9462962962963</v>
+        <v>8.3134693877551</v>
       </c>
       <c r="E6" t="n">
-        <v>2.14</v>
+        <v>1.24</v>
       </c>
       <c r="F6" t="n">
-        <v>7.9</v>
+        <v>34.86</v>
       </c>
       <c r="G6" t="n">
-        <v>4.17981481481482</v>
+        <v>6.28163265306122</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="n">
-        <v>4.22</v>
+        <v>3.52</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2037037037037</v>
+        <v>1.36734693877551</v>
       </c>
       <c r="K6" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="L6" t="n">
-        <v>0.98</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>0.401851851851852</v>
+        <v>0.500816326530612</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="P6" t="n">
-        <v>0.130925925925926</v>
+        <v>0.13265306122449</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1270,88 +1270,88 @@
         <v>0.07</v>
       </c>
       <c r="S6" t="n">
+        <v>0.0218367346938776</v>
+      </c>
+      <c r="T6" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>69.9673469387755</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>20.6612244897959</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.77755102040816</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.24285714285714</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.351020408163265</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.97204081632653</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>68</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>158</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>117.244897959184</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>35.334693877551</v>
+      </c>
+      <c r="AR6" t="n">
         <v>0.03</v>
       </c>
-      <c r="T6" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="U6" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>59.4759259259259</v>
-      </c>
-      <c r="W6" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>32.3148148148148</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5.82407407407407</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.91666666666667</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.468518518518519</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>4.97148148148148</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>106</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>177</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>145.740740740741</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>45.0185185185185</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>146</v>
-      </c>
       <c r="AS6" t="n">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="AT6" t="n">
-        <v>241.796296296296</v>
+        <v>38.7692244897959</v>
       </c>
     </row>
     <row r="7">
@@ -1359,139 +1359,139 @@
         <v>51</v>
       </c>
       <c r="B7" t="n">
-        <v>3.26</v>
+        <v>3.43</v>
       </c>
       <c r="C7" t="n">
-        <v>10.54</v>
+        <v>33.47</v>
       </c>
       <c r="D7" t="n">
-        <v>6.59688888888889</v>
+        <v>8.28254901960784</v>
       </c>
       <c r="E7" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="F7" t="n">
-        <v>6.75</v>
+        <v>30.35</v>
       </c>
       <c r="G7" t="n">
-        <v>4.06844444444444</v>
+        <v>6.06450980392157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.96</v>
+        <v>0.19</v>
       </c>
       <c r="I7" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="J7" t="n">
-        <v>2.01888888888889</v>
+        <v>1.45156862745098</v>
       </c>
       <c r="K7" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="L7" t="n">
-        <v>0.76</v>
+        <v>2.71</v>
       </c>
       <c r="M7" t="n">
-        <v>0.369777777777778</v>
+        <v>0.575882352941177</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.34</v>
+        <v>3.15</v>
       </c>
       <c r="P7" t="n">
-        <v>0.106888888888889</v>
+        <v>0.163333333333333</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0328888888888889</v>
+        <v>0.0272549019607843</v>
       </c>
       <c r="T7" t="n">
         <v>41.5</v>
       </c>
       <c r="U7" t="n">
-        <v>75.7</v>
+        <v>98.2</v>
       </c>
       <c r="V7" t="n">
-        <v>60.8622222222222</v>
+        <v>69</v>
       </c>
       <c r="W7" t="n">
-        <v>19.2</v>
+        <v>0.9</v>
       </c>
       <c r="X7" t="n">
-        <v>47.3</v>
+        <v>51.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.2933333333333</v>
+        <v>21.3156862745098</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.9</v>
+        <v>17.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.65111111111111</v>
+        <v>7.09411764705882</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.7</v>
+        <v>32.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.65777777777778</v>
+        <v>2.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.535555555555556</v>
+        <v>0.390196078431373</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.74</v>
+        <v>2.01</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.06</v>
+        <v>5.63</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.88911111111111</v>
+        <v>3.75666666666667</v>
       </c>
       <c r="AL7" t="n">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="AM7" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="AN7" t="n">
-        <v>142.644444444444</v>
+        <v>116.294117647059</v>
       </c>
       <c r="AO7" t="n">
-        <v>35.8</v>
+        <v>18.3</v>
       </c>
       <c r="AP7" t="n">
-        <v>55.4</v>
+        <v>51.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>44.5355555555556</v>
+        <v>35.0235294117647</v>
       </c>
       <c r="AR7" t="n">
-        <v>96</v>
+        <v>0.018</v>
       </c>
       <c r="AS7" t="n">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="AT7" t="n">
-        <v>223.133333333333</v>
+        <v>37.3386666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1499,139 +1499,139 @@
         <v>52</v>
       </c>
       <c r="B8" t="n">
-        <v>3.77</v>
+        <v>1.41</v>
       </c>
       <c r="C8" t="n">
-        <v>10.64</v>
+        <v>24.66</v>
       </c>
       <c r="D8" t="n">
-        <v>6.39851851851852</v>
+        <v>7.39387755102041</v>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>0.48</v>
       </c>
       <c r="F8" t="n">
-        <v>8.43</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>4.10425925925926</v>
+        <v>5.44877551020408</v>
       </c>
       <c r="H8" t="n">
-        <v>0.68</v>
+        <v>0.22</v>
       </c>
       <c r="I8" t="n">
-        <v>3.63</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>1.82722222222222</v>
+        <v>1.30795918367347</v>
       </c>
       <c r="K8" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.68</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
-        <v>0.342777777777778</v>
+        <v>0.483469387755102</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.32</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0972222222222222</v>
+        <v>0.133061224489796</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="S8" t="n">
-        <v>0.027037037037037</v>
+        <v>0.0206122448979592</v>
       </c>
       <c r="T8" t="n">
-        <v>39.6</v>
+        <v>34.2</v>
       </c>
       <c r="U8" t="n">
-        <v>79.5</v>
+        <v>91.7</v>
       </c>
       <c r="V8" t="n">
-        <v>62.8777777777778</v>
+        <v>70.8040816326531</v>
       </c>
       <c r="W8" t="n">
-        <v>15.1</v>
+        <v>3.8</v>
       </c>
       <c r="X8" t="n">
-        <v>53.2</v>
+        <v>47.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.6296296296296</v>
+        <v>19.8734693877551</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.42407407407407</v>
+        <v>7.05510204081633</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>14.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.59444444444444</v>
+        <v>1.95510204081633</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.474074074074074</v>
+        <v>0.312244897959184</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.6</v>
+        <v>1.58</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.87</v>
+        <v>5.06</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.70037037037037</v>
+        <v>3.51877551020408</v>
       </c>
       <c r="AL8" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="AM8" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AN8" t="n">
-        <v>139.111111111111</v>
+        <v>105.857142857143</v>
       </c>
       <c r="AO8" t="n">
-        <v>34.9</v>
+        <v>14.2</v>
       </c>
       <c r="AP8" t="n">
-        <v>51.6</v>
+        <v>47.8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>43.2537037037037</v>
+        <v>32.0061224489796</v>
       </c>
       <c r="AR8" t="n">
-        <v>106</v>
+        <v>0.05</v>
       </c>
       <c r="AS8" t="n">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="AT8" t="n">
-        <v>236.592592592593</v>
+        <v>41.840387755102</v>
       </c>
     </row>
     <row r="9">
@@ -1639,139 +1639,139 @@
         <v>53</v>
       </c>
       <c r="B9" t="n">
-        <v>4.24</v>
+        <v>5.58</v>
       </c>
       <c r="C9" t="n">
-        <v>12.81</v>
+        <v>24.95</v>
       </c>
       <c r="D9" t="n">
-        <v>6.54907407407407</v>
+        <v>8.741875</v>
       </c>
       <c r="E9" t="n">
-        <v>2.32</v>
+        <v>1.43</v>
       </c>
       <c r="F9" t="n">
-        <v>9.61</v>
+        <v>17.95</v>
       </c>
       <c r="G9" t="n">
-        <v>4.10905660377358</v>
+        <v>3.253125</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
-        <v>4.14</v>
+        <v>7.15</v>
       </c>
       <c r="J9" t="n">
-        <v>1.975</v>
+        <v>4.6359375</v>
       </c>
       <c r="K9" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="L9" t="n">
-        <v>0.69</v>
+        <v>2.57</v>
       </c>
       <c r="M9" t="n">
-        <v>0.350925925925926</v>
+        <v>0.5665625</v>
       </c>
       <c r="N9" t="n">
         <v>0.01</v>
       </c>
       <c r="O9" t="n">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
       <c r="P9" t="n">
-        <v>0.115185185185185</v>
+        <v>0.2546875</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0315625</v>
+      </c>
+      <c r="T9" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>72</v>
+      </c>
+      <c r="V9" t="n">
+        <v>34.396875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>55.9125</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.246875</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0264814814814815</v>
-      </c>
-      <c r="T9" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>75.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>61.8074074074074</v>
-      </c>
-      <c r="W9" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>30.4444444444444</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>5.51851851851852</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.77777777777778</v>
+        <v>3.065625</v>
       </c>
       <c r="AF9" t="n">
         <v>0.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.451851851851852</v>
+        <v>0.38125</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.77</v>
+        <v>3.23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.37</v>
+        <v>5.26</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.68537037037037</v>
+        <v>4.4925</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="AN9" t="n">
-        <v>141.407407407407</v>
+        <v>122.84375</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>30.2</v>
       </c>
       <c r="AP9" t="n">
-        <v>55.3</v>
+        <v>40.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>44.2185185185185</v>
+        <v>37.175</v>
       </c>
       <c r="AR9" t="n">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AS9" t="n">
-        <v>360</v>
+        <v>561</v>
       </c>
       <c r="AT9" t="n">
-        <v>213</v>
+        <v>325.28125</v>
       </c>
     </row>
     <row r="10">
@@ -1779,139 +1779,139 @@
         <v>54</v>
       </c>
       <c r="B10" t="n">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="C10" t="n">
-        <v>37.83</v>
+        <v>12.4</v>
       </c>
       <c r="D10" t="n">
-        <v>8.3134693877551</v>
+        <v>7.32833333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="F10" t="n">
-        <v>34.86</v>
+        <v>8.47</v>
       </c>
       <c r="G10" t="n">
-        <v>6.28163265306122</v>
+        <v>3.48597222222222</v>
       </c>
       <c r="H10" t="n">
-        <v>0.34</v>
+        <v>1.39</v>
       </c>
       <c r="I10" t="n">
-        <v>3.52</v>
+        <v>5.38</v>
       </c>
       <c r="J10" t="n">
-        <v>1.36734693877551</v>
+        <v>3.10652777777778</v>
       </c>
       <c r="K10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.439305555555556</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.01</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.500816326530612</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="P10" t="n">
-        <v>0.13265306122449</v>
+        <v>0.248888888888889</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0218367346938776</v>
+        <v>0.0354166666666667</v>
       </c>
       <c r="T10" t="n">
-        <v>43.1</v>
+        <v>28.8</v>
       </c>
       <c r="U10" t="n">
-        <v>92.9</v>
+        <v>72.1</v>
       </c>
       <c r="V10" t="n">
-        <v>69.9673469387755</v>
+        <v>46.6902777777778</v>
       </c>
       <c r="W10" t="n">
-        <v>2.8</v>
+        <v>19.8</v>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.6612244897959</v>
+        <v>43.2611111111111</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.77755102040816</v>
+        <v>6.0625</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.3</v>
+        <v>11.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.24285714285714</v>
+        <v>3.43055555555556</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.351020408163265</v>
+        <v>0.498611111111111</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.04</v>
+        <v>4.23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.46</v>
+        <v>5.76</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.97204081632653</v>
+        <v>4.72</v>
       </c>
       <c r="AL10" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="AM10" t="n">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="AN10" t="n">
-        <v>117.244897959184</v>
+        <v>132.222222222222</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>36.1</v>
       </c>
       <c r="AP10" t="n">
-        <v>45.8</v>
+        <v>42.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>35.334693877551</v>
+        <v>39.5569444444444</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.03</v>
+        <v>174</v>
       </c>
       <c r="AS10" t="n">
-        <v>404</v>
+        <v>518</v>
       </c>
       <c r="AT10" t="n">
-        <v>38.7692244897959</v>
+        <v>311.486111111111</v>
       </c>
     </row>
     <row r="11">
@@ -1919,139 +1919,139 @@
         <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>3.43</v>
+        <v>3.78</v>
       </c>
       <c r="C11" t="n">
-        <v>33.47</v>
+        <v>12.7</v>
       </c>
       <c r="D11" t="n">
-        <v>8.28254901960784</v>
+        <v>6.65835616438356</v>
       </c>
       <c r="E11" t="n">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="F11" t="n">
-        <v>30.35</v>
+        <v>10.15</v>
       </c>
       <c r="G11" t="n">
-        <v>6.06450980392157</v>
+        <v>3.7113698630137</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="I11" t="n">
-        <v>3.44</v>
+        <v>4.39</v>
       </c>
       <c r="J11" t="n">
-        <v>1.45156862745098</v>
+        <v>2.3827397260274</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="L11" t="n">
-        <v>2.71</v>
+        <v>0.9</v>
       </c>
       <c r="M11" t="n">
-        <v>0.575882352941177</v>
+        <v>0.397945205479452</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.15</v>
+        <v>0.91</v>
       </c>
       <c r="P11" t="n">
-        <v>0.163333333333333</v>
+        <v>0.21013698630137</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0272549019607843</v>
+        <v>0.0301369863013699</v>
       </c>
       <c r="T11" t="n">
-        <v>41.5</v>
+        <v>29.8</v>
       </c>
       <c r="U11" t="n">
-        <v>98.2</v>
+        <v>79.8</v>
       </c>
       <c r="V11" t="n">
-        <v>69</v>
+        <v>52.7630136986301</v>
       </c>
       <c r="W11" t="n">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
       <c r="X11" t="n">
-        <v>51.6</v>
+        <v>58.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.3156862745098</v>
+        <v>37.2164383561644</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.4</v>
+        <v>11.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.09411764705882</v>
+        <v>6.01369863013699</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>32.2</v>
+        <v>13.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.2</v>
+        <v>3.12054794520548</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.390196078431373</v>
+        <v>0.458904109589041</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.01</v>
+        <v>1.71</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.63</v>
+        <v>5.38</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.75666666666667</v>
+        <v>4.63150684931507</v>
       </c>
       <c r="AL11" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="AM11" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="n">
-        <v>116.294117647059</v>
+        <v>132.712328767123</v>
       </c>
       <c r="AO11" t="n">
-        <v>18.3</v>
+        <v>32.6</v>
       </c>
       <c r="AP11" t="n">
-        <v>51.2</v>
+        <v>46</v>
       </c>
       <c r="AQ11" t="n">
-        <v>35.0235294117647</v>
+        <v>39.727397260274</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.018</v>
+        <v>137</v>
       </c>
       <c r="AS11" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AT11" t="n">
-        <v>37.3386666666667</v>
+        <v>270.356164383562</v>
       </c>
     </row>
     <row r="12">
@@ -2059,139 +2059,139 @@
         <v>56</v>
       </c>
       <c r="B12" t="n">
-        <v>1.41</v>
+        <v>2.88</v>
       </c>
       <c r="C12" t="n">
-        <v>24.66</v>
+        <v>9.07</v>
       </c>
       <c r="D12" t="n">
-        <v>7.39387755102041</v>
+        <v>6.4403125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>5.43</v>
       </c>
       <c r="G12" t="n">
-        <v>5.44877551020408</v>
+        <v>3.319375</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22</v>
+        <v>1.09</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>4.87</v>
       </c>
       <c r="J12" t="n">
-        <v>1.30795918367347</v>
+        <v>2.503125</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>0.73</v>
       </c>
       <c r="M12" t="n">
-        <v>0.483469387755102</v>
+        <v>0.38390625</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>0.83</v>
       </c>
       <c r="P12" t="n">
-        <v>0.133061224489796</v>
+        <v>0.20125</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R12" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0206122448979592</v>
+        <v>0.0296875</v>
       </c>
       <c r="T12" t="n">
-        <v>34.2</v>
+        <v>12.6</v>
       </c>
       <c r="U12" t="n">
-        <v>91.7</v>
+        <v>72.8</v>
       </c>
       <c r="V12" t="n">
-        <v>70.8040816326531</v>
+        <v>50.61875</v>
       </c>
       <c r="W12" t="n">
-        <v>3.8</v>
+        <v>15.1</v>
       </c>
       <c r="X12" t="n">
-        <v>47.3</v>
+        <v>57.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.8734693877551</v>
+        <v>38.8359375</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.4</v>
+        <v>10.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.05510204081633</v>
+        <v>5.9984375</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.1</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.95510204081633</v>
+        <v>3.184375</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.312244897959184</v>
+        <v>0.4890625</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.58</v>
+        <v>4.05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.06</v>
+        <v>6.97</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.51877551020408</v>
+        <v>4.90875</v>
       </c>
       <c r="AL12" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AM12" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="n">
-        <v>105.857142857143</v>
+        <v>141.21875</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.2</v>
+        <v>33.1</v>
       </c>
       <c r="AP12" t="n">
-        <v>47.8</v>
+        <v>48.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>32.0061224489796</v>
+        <v>42.3265625</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.05</v>
+        <v>118</v>
       </c>
       <c r="AS12" t="n">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="AT12" t="n">
-        <v>41.840387755102</v>
+        <v>252.078125</v>
       </c>
     </row>
   </sheetData>
